--- a/data/scheduling_DNN/predict/0.9/result23.xlsx
+++ b/data/scheduling_DNN/predict/0.9/result23.xlsx
@@ -570,10 +570,10 @@
         <v>0.8884549140930176</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8004976511001587</v>
+        <v>0.399294525384903</v>
       </c>
       <c r="W2" t="n">
-        <v>0.007736480329185724</v>
+        <v>0.2392778843641281</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9551630020141602</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8371423482894897</v>
+        <v>0.4055578708648682</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01392887439578772</v>
+        <v>0.3020657896995544</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9185559749603271</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5870922207832336</v>
+        <v>0.3992994129657745</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1098682209849358</v>
+        <v>0.2696274220943451</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8967239856719971</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4615180790424347</v>
+        <v>0.8737940192222595</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1894041746854782</v>
+        <v>0.0005257833399809897</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8834071159362793</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6516773104667664</v>
+        <v>0.399299681186676</v>
       </c>
       <c r="W6" t="n">
-        <v>0.05369870364665985</v>
+        <v>0.234360009431839</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8597118854522705</v>
       </c>
       <c r="V7" t="n">
-        <v>0.9757455587387085</v>
+        <v>0.4002378582954407</v>
       </c>
       <c r="W7" t="n">
-        <v>0.01346381288021803</v>
+        <v>0.2111163884401321</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>1.07122802734375</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4175129532814026</v>
+        <v>0.8665328621864319</v>
       </c>
       <c r="W8" t="n">
-        <v>0.4273433983325958</v>
+        <v>0.04190010949969292</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8737270832061768</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3515170216560364</v>
+        <v>0.8704193234443665</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2727033495903015</v>
+        <v>1.094127492251573e-05</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8790328502655029</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5947228074073792</v>
+        <v>0.519827663898468</v>
       </c>
       <c r="W10" t="n">
-        <v>0.08083219826221466</v>
+        <v>0.1290283650159836</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.901339054107666</v>
       </c>
       <c r="V11" t="n">
-        <v>0.4614622294902802</v>
+        <v>0.4090713560581207</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1934916228055954</v>
+        <v>0.242327481508255</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8686208724975586</v>
       </c>
       <c r="V12" t="n">
-        <v>0.8028735518455505</v>
+        <v>0.5253116488456726</v>
       </c>
       <c r="W12" t="n">
-        <v>0.004322709981352091</v>
+        <v>0.1178612262010574</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8623161315917969</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6992341279983521</v>
+        <v>0.5209493637084961</v>
       </c>
       <c r="W13" t="n">
-        <v>0.02659573964774609</v>
+        <v>0.1165312677621841</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8651430606842041</v>
       </c>
       <c r="V14" t="n">
-        <v>0.654336154460907</v>
+        <v>0.4001078903675079</v>
       </c>
       <c r="W14" t="n">
-        <v>0.04443955048918724</v>
+        <v>0.216257706284523</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9484431743621826</v>
       </c>
       <c r="V15" t="n">
-        <v>0.6534236073493958</v>
+        <v>0.513013482093811</v>
       </c>
       <c r="W15" t="n">
-        <v>0.08703654259443283</v>
+        <v>0.189599022269249</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.878809928894043</v>
       </c>
       <c r="V16" t="n">
-        <v>0.8386415839195251</v>
+        <v>0.5336184501647949</v>
       </c>
       <c r="W16" t="n">
-        <v>0.001613495987839997</v>
+        <v>0.1191571578383446</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8664481639862061</v>
       </c>
       <c r="V17" t="n">
-        <v>0.3507806360721588</v>
+        <v>0.8647611737251282</v>
       </c>
       <c r="W17" t="n">
-        <v>0.2659130394458771</v>
+        <v>2.845936251105741e-06</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8916950225830078</v>
       </c>
       <c r="V18" t="n">
-        <v>0.6533820629119873</v>
+        <v>0.4001018106937408</v>
       </c>
       <c r="W18" t="n">
-        <v>0.05679306760430336</v>
+        <v>0.2416638880968094</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.9151768684387207</v>
       </c>
       <c r="V19" t="n">
-        <v>0.4175422191619873</v>
+        <v>0.8741380572319031</v>
       </c>
       <c r="W19" t="n">
-        <v>0.2476402372121811</v>
+        <v>0.001684184069745243</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8746120929718018</v>
       </c>
       <c r="V20" t="n">
-        <v>0.3783542811870575</v>
+        <v>0.5138547420501709</v>
       </c>
       <c r="W20" t="n">
-        <v>0.2462718188762665</v>
+        <v>0.130145862698555</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8753421306610107</v>
       </c>
       <c r="V21" t="n">
-        <v>0.8339731693267822</v>
+        <v>0.3998605906963348</v>
       </c>
       <c r="W21" t="n">
-        <v>0.001711390912532806</v>
+        <v>0.2260826975107193</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5185060501098633</v>
       </c>
       <c r="V22" t="n">
-        <v>0.9755939245223999</v>
+        <v>0.4062802791595459</v>
       </c>
       <c r="W22" t="n">
-        <v>0.2089293301105499</v>
+        <v>0.01259462349116802</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5583419799804688</v>
       </c>
       <c r="V23" t="n">
-        <v>0.5257673263549805</v>
+        <v>0.5326513051986694</v>
       </c>
       <c r="W23" t="n">
-        <v>0.001061108079738915</v>
+        <v>0.0006600107881240547</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5948619842529297</v>
       </c>
       <c r="V24" t="n">
-        <v>0.8039833903312683</v>
+        <v>0.4009192287921906</v>
       </c>
       <c r="W24" t="n">
-        <v>0.04373176395893097</v>
+        <v>0.03761379420757294</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5509181022644043</v>
       </c>
       <c r="V25" t="n">
-        <v>0.5762090086936951</v>
+        <v>0.4004019796848297</v>
       </c>
       <c r="W25" t="n">
-        <v>0.0006396299577318132</v>
+        <v>0.02265510335564613</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5279209613800049</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4174875020980835</v>
+        <v>0.8736400008201599</v>
       </c>
       <c r="W26" t="n">
-        <v>0.01219554897397757</v>
+        <v>0.1195216551423073</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5133368968963623</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5760207772254944</v>
+        <v>0.8636077642440796</v>
       </c>
       <c r="W27" t="n">
-        <v>0.003929269034415483</v>
+        <v>0.1226896792650223</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.569044828414917</v>
       </c>
       <c r="V28" t="n">
-        <v>0.5245808959007263</v>
+        <v>0.5346745848655701</v>
       </c>
       <c r="W28" t="n">
-        <v>0.001977041363716125</v>
+        <v>0.001181313651613891</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5756800174713135</v>
       </c>
       <c r="V29" t="n">
-        <v>0.4907757639884949</v>
+        <v>0.3996807634830475</v>
       </c>
       <c r="W29" t="n">
-        <v>0.007208732422441244</v>
+        <v>0.03097573667764664</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5372881889343262</v>
       </c>
       <c r="V30" t="n">
-        <v>0.4176395535469055</v>
+        <v>0.3990506827831268</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01431579608470201</v>
+        <v>0.01910960860550404</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5134849548339844</v>
       </c>
       <c r="V31" t="n">
-        <v>0.490907609462738</v>
+        <v>0.3996992409229279</v>
       </c>
       <c r="W31" t="n">
-        <v>0.0005097365356050432</v>
+        <v>0.01294718869030476</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5252640247344971</v>
       </c>
       <c r="V32" t="n">
-        <v>0.5908746719360352</v>
+        <v>0.8760059475898743</v>
       </c>
       <c r="W32" t="n">
-        <v>0.004304756876081228</v>
+        <v>0.1230198964476585</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5109241008758545</v>
       </c>
       <c r="V33" t="n">
-        <v>0.6531109213829041</v>
+        <v>0.8756753206253052</v>
       </c>
       <c r="W33" t="n">
-        <v>0.02021709270775318</v>
+        <v>0.1330434530973434</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5865850448608398</v>
       </c>
       <c r="V34" t="n">
-        <v>0.524641752243042</v>
+        <v>0.887538731098175</v>
       </c>
       <c r="W34" t="n">
-        <v>0.003836971474811435</v>
+        <v>0.09057312458753586</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5184500217437744</v>
       </c>
       <c r="V35" t="n">
-        <v>0.5762007236480713</v>
+        <v>0.3990472257137299</v>
       </c>
       <c r="W35" t="n">
-        <v>0.003335143672302365</v>
+        <v>0.01425702776759863</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5295090675354004</v>
       </c>
       <c r="V36" t="n">
-        <v>0.7080433368682861</v>
+        <v>0.3990484774112701</v>
       </c>
       <c r="W36" t="n">
-        <v>0.03187448531389236</v>
+        <v>0.01701996475458145</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5112769603729248</v>
       </c>
       <c r="V37" t="n">
-        <v>0.503772497177124</v>
+        <v>0.3990276157855988</v>
       </c>
       <c r="W37" t="n">
-        <v>5.631696694763377e-05</v>
+        <v>0.01259991526603699</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5116491317749023</v>
       </c>
       <c r="V38" t="n">
-        <v>0.5251024961471558</v>
+        <v>0.5325130820274353</v>
       </c>
       <c r="W38" t="n">
-        <v>0.0001809930108720437</v>
+        <v>0.0004353044205345213</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5144960880279541</v>
       </c>
       <c r="V39" t="n">
-        <v>0.4175398349761963</v>
+        <v>0.4002465605735779</v>
       </c>
       <c r="W39" t="n">
-        <v>0.009400514885783195</v>
+        <v>0.01305295433849096</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5129060745239258</v>
       </c>
       <c r="V40" t="n">
-        <v>0.9755794405937195</v>
+        <v>0.871481716632843</v>
       </c>
       <c r="W40" t="n">
-        <v>0.2140666395425797</v>
+        <v>0.1285764873027802</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5161380767822266</v>
       </c>
       <c r="V41" t="n">
-        <v>0.9755766987800598</v>
+        <v>0.3990359008312225</v>
       </c>
       <c r="W41" t="n">
-        <v>0.2110838443040848</v>
+        <v>0.01371291931718588</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.3956840038299561</v>
       </c>
       <c r="V42" t="n">
-        <v>0.5760191679000854</v>
+        <v>0.4061429500579834</v>
       </c>
       <c r="W42" t="n">
-        <v>0.03252077102661133</v>
+        <v>0.0001093895552912727</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4274368286132812</v>
       </c>
       <c r="V43" t="n">
-        <v>0.371780127286911</v>
+        <v>0.5184991955757141</v>
       </c>
       <c r="W43" t="n">
-        <v>0.003097668290138245</v>
+        <v>0.008292354643344879</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3870470523834229</v>
       </c>
       <c r="V44" t="n">
-        <v>0.5762016177177429</v>
+        <v>0.871255099773407</v>
       </c>
       <c r="W44" t="n">
-        <v>0.0357794500887394</v>
+        <v>0.2344574332237244</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3867180347442627</v>
       </c>
       <c r="V45" t="n">
-        <v>0.5037472248077393</v>
+        <v>0.5212637782096863</v>
       </c>
       <c r="W45" t="n">
-        <v>0.01369583141058683</v>
+        <v>0.01810255646705627</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3896000385284424</v>
       </c>
       <c r="V46" t="n">
-        <v>0.417663037776947</v>
+        <v>0.3990481793880463</v>
       </c>
       <c r="W46" t="n">
-        <v>0.0007875318988226354</v>
+        <v>8.92673633643426e-05</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3911778926849365</v>
       </c>
       <c r="V47" t="n">
-        <v>0.5245877504348755</v>
+        <v>0.8763231635093689</v>
       </c>
       <c r="W47" t="n">
-        <v>0.01779819093644619</v>
+        <v>0.2353659272193909</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3942551612854004</v>
       </c>
       <c r="V48" t="n">
-        <v>0.5051002502441406</v>
+        <v>0.8694696426391602</v>
       </c>
       <c r="W48" t="n">
-        <v>0.01228663418442011</v>
+        <v>0.2258287966251373</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3842079639434814</v>
       </c>
       <c r="V49" t="n">
-        <v>0.653493344783783</v>
+        <v>0.5108534693717957</v>
       </c>
       <c r="W49" t="n">
-        <v>0.0725146159529686</v>
+        <v>0.01603908464312553</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.387706995010376</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4176522493362427</v>
+        <v>0.5230549573898315</v>
       </c>
       <c r="W50" t="n">
-        <v>0.000896718236617744</v>
+        <v>0.01831907033920288</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3863511085510254</v>
       </c>
       <c r="V51" t="n">
-        <v>0.3895606100559235</v>
+        <v>0.8597498536109924</v>
       </c>
       <c r="W51" t="n">
-        <v>1.030089970299741e-05</v>
+        <v>0.2241063714027405</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.4315900802612305</v>
       </c>
       <c r="V52" t="n">
-        <v>0.405481219291687</v>
+        <v>0.5229462385177612</v>
       </c>
       <c r="W52" t="n">
-        <v>0.0006816725945100188</v>
+        <v>0.008345947600901127</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3852369785308838</v>
       </c>
       <c r="V53" t="n">
-        <v>0.3507497906684875</v>
+        <v>0.5136847496032715</v>
       </c>
       <c r="W53" t="n">
-        <v>0.00118936609942466</v>
+        <v>0.01649883016943932</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3936328887939453</v>
       </c>
       <c r="V54" t="n">
-        <v>0.708076536655426</v>
+        <v>0.4001140594482422</v>
       </c>
       <c r="W54" t="n">
-        <v>0.09887480735778809</v>
+        <v>4.200557305011898e-05</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3849899768829346</v>
       </c>
       <c r="V55" t="n">
-        <v>0.6535240411758423</v>
+        <v>0.5228992700576782</v>
       </c>
       <c r="W55" t="n">
-        <v>0.07211054116487503</v>
+        <v>0.01901897229254246</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3853709697723389</v>
       </c>
       <c r="V56" t="n">
-        <v>0.6547797918319702</v>
+        <v>0.8894412517547607</v>
       </c>
       <c r="W56" t="n">
-        <v>0.07258111238479614</v>
+        <v>0.2540868520736694</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3843591213226318</v>
       </c>
       <c r="V57" t="n">
-        <v>0.6507607698440552</v>
+        <v>0.4004146754741669</v>
       </c>
       <c r="W57" t="n">
-        <v>0.0709698349237442</v>
+        <v>0.0002577808336354792</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.4378149509429932</v>
       </c>
       <c r="V58" t="n">
-        <v>0.5825173258781433</v>
+        <v>0.3990377485752106</v>
       </c>
       <c r="W58" t="n">
-        <v>0.02093877643346786</v>
+        <v>0.001503671403042972</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3972539901733398</v>
       </c>
       <c r="V59" t="n">
-        <v>0.5763152837753296</v>
+        <v>0.4009565412998199</v>
       </c>
       <c r="W59" t="n">
-        <v>0.03206294775009155</v>
+        <v>1.370888458041009e-05</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3907439708709717</v>
       </c>
       <c r="V60" t="n">
-        <v>0.5946947336196899</v>
+        <v>0.5165973305702209</v>
       </c>
       <c r="W60" t="n">
-        <v>0.04159591346979141</v>
+        <v>0.01583906821906567</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.38419508934021</v>
       </c>
       <c r="V61" t="n">
-        <v>0.7081183791160583</v>
+        <v>0.8775079846382141</v>
       </c>
       <c r="W61" t="n">
-        <v>0.1049262955784798</v>
+        <v>0.2433576136827469</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8681600093841553</v>
       </c>
       <c r="V62" t="n">
-        <v>0.5762905478477478</v>
+        <v>0.8746193051338196</v>
       </c>
       <c r="W62" t="n">
-        <v>0.08518778532743454</v>
+        <v>4.172250191913918e-05</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8967771530151367</v>
       </c>
       <c r="V63" t="n">
-        <v>0.8004398941993713</v>
+        <v>0.399297684431076</v>
       </c>
       <c r="W63" t="n">
-        <v>0.009280867874622345</v>
+        <v>0.2474858164787292</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8646180629730225</v>
       </c>
       <c r="V64" t="n">
-        <v>0.5058352947235107</v>
+        <v>0.3990508019924164</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1287250816822052</v>
+        <v>0.2167528718709946</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8666529655456543</v>
       </c>
       <c r="V65" t="n">
-        <v>0.5046958923339844</v>
+        <v>0.4004318714141846</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1310129165649414</v>
+        <v>0.217362105846405</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8697168827056885</v>
       </c>
       <c r="V66" t="n">
-        <v>0.5762413144111633</v>
+        <v>0.518201470375061</v>
       </c>
       <c r="W66" t="n">
-        <v>0.08612790703773499</v>
+        <v>0.1235630884766579</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.9256141185760498</v>
       </c>
       <c r="V67" t="n">
-        <v>0.8340836763381958</v>
+        <v>0.8864151835441589</v>
       </c>
       <c r="W67" t="n">
-        <v>0.008377822116017342</v>
+        <v>0.001536556519567966</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8976099491119385</v>
       </c>
       <c r="V68" t="n">
-        <v>0.9755698442459106</v>
+        <v>0.8870947360992432</v>
       </c>
       <c r="W68" t="n">
-        <v>0.006077745463699102</v>
+        <v>0.000110569701064378</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8707211017608643</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5906542539596558</v>
+        <v>0.8822088241577148</v>
       </c>
       <c r="W69" t="n">
-        <v>0.078437440097332</v>
+        <v>0.0001319677685387433</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8629240989685059</v>
       </c>
       <c r="V70" t="n">
-        <v>0.576347291469574</v>
+        <v>0.5153335332870483</v>
       </c>
       <c r="W70" t="n">
-        <v>0.08212626725435257</v>
+        <v>0.120819203555584</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.9299569129943848</v>
       </c>
       <c r="V71" t="n">
-        <v>0.8020263910293579</v>
+        <v>0.5250204801559448</v>
       </c>
       <c r="W71" t="n">
-        <v>0.01636621914803982</v>
+        <v>0.1639735102653503</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8682088851928711</v>
       </c>
       <c r="V72" t="n">
-        <v>0.6538257002830505</v>
+        <v>0.5239736437797546</v>
       </c>
       <c r="W72" t="n">
-        <v>0.04596015065908432</v>
+        <v>0.1184979006648064</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8610258102416992</v>
       </c>
       <c r="V73" t="n">
-        <v>0.4903903901576996</v>
+        <v>0.876379132270813</v>
       </c>
       <c r="W73" t="n">
-        <v>0.1373706161975861</v>
+        <v>0.0002357244957238436</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8548650741577148</v>
       </c>
       <c r="V74" t="n">
-        <v>0.5247950553894043</v>
+        <v>0.5657264590263367</v>
       </c>
       <c r="W74" t="n">
-        <v>0.108946219086647</v>
+        <v>0.08360113948583603</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.9164128303527832</v>
       </c>
       <c r="V75" t="n">
-        <v>0.4907905161380768</v>
+        <v>0.5155314207077026</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1811543554067612</v>
+        <v>0.1607059091329575</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8647189140319824</v>
       </c>
       <c r="V76" t="n">
-        <v>0.7080770134925842</v>
+        <v>0.4009643495082855</v>
       </c>
       <c r="W76" t="n">
-        <v>0.02453668415546417</v>
+        <v>0.2150682955980301</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8672587871551514</v>
       </c>
       <c r="V77" t="n">
-        <v>0.3783526420593262</v>
+        <v>0.4002820551395416</v>
       </c>
       <c r="W77" t="n">
-        <v>0.2390292137861252</v>
+        <v>0.2180672734975815</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8561270236968994</v>
       </c>
       <c r="V78" t="n">
-        <v>0.4903536438941956</v>
+        <v>0.3990459442138672</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1337901651859283</v>
+        <v>0.2089231163263321</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.9201931953430176</v>
       </c>
       <c r="V79" t="n">
-        <v>0.7082430720329285</v>
+        <v>0.4081276953220367</v>
       </c>
       <c r="W79" t="n">
-        <v>0.0449228547513485</v>
+        <v>0.2622111141681671</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.855402946472168</v>
       </c>
       <c r="V80" t="n">
-        <v>0.3507759571075439</v>
+        <v>0.8865644335746765</v>
       </c>
       <c r="W80" t="n">
-        <v>0.2546483874320984</v>
+        <v>0.0009710383019410074</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.9143579006195068</v>
       </c>
       <c r="V81" t="n">
-        <v>0.6533793210983276</v>
+        <v>0.5338420867919922</v>
       </c>
       <c r="W81" t="n">
-        <v>0.06810981780290604</v>
+        <v>0.1447922885417938</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5773749351501465</v>
       </c>
       <c r="V82" t="n">
-        <v>0.4638231992721558</v>
+        <v>0.3990204334259033</v>
       </c>
       <c r="W82" t="n">
-        <v>0.01289399713277817</v>
+        <v>0.03181032836437225</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.554434061050415</v>
       </c>
       <c r="V83" t="n">
-        <v>0.4176412224769592</v>
+        <v>0.8777974843978882</v>
       </c>
       <c r="W83" t="n">
-        <v>0.01871228031814098</v>
+        <v>0.104563906788826</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5399489402770996</v>
       </c>
       <c r="V84" t="n">
-        <v>0.8031194806098938</v>
+        <v>0.5333475470542908</v>
       </c>
       <c r="W84" t="n">
-        <v>0.06925873458385468</v>
+        <v>4.357839134172536e-05</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5441670417785645</v>
       </c>
       <c r="V85" t="n">
-        <v>0.3794727325439453</v>
+        <v>0.8862838745117188</v>
       </c>
       <c r="W85" t="n">
-        <v>0.02712421491742134</v>
+        <v>0.1170439273118973</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.512894868850708</v>
       </c>
       <c r="V86" t="n">
-        <v>0.3721317946910858</v>
+        <v>0.8768322467803955</v>
       </c>
       <c r="W86" t="n">
-        <v>0.01981424354016781</v>
+        <v>0.1324504166841507</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5125360488891602</v>
       </c>
       <c r="V87" t="n">
-        <v>0.8341045379638672</v>
+        <v>0.4001029431819916</v>
       </c>
       <c r="W87" t="n">
-        <v>0.1034062951803207</v>
+        <v>0.01264120358973742</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5131340026855469</v>
       </c>
       <c r="V88" t="n">
-        <v>0.5051230192184448</v>
+        <v>0.5159587860107422</v>
       </c>
       <c r="W88" t="n">
-        <v>6.417585973395035e-05</v>
+        <v>7.979400834301487e-06</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5161001682281494</v>
       </c>
       <c r="V89" t="n">
-        <v>0.8023541569709778</v>
+        <v>0.8929756283760071</v>
       </c>
       <c r="W89" t="n">
-        <v>0.08194134384393692</v>
+        <v>0.142035111784935</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5167219638824463</v>
       </c>
       <c r="V90" t="n">
-        <v>0.6538669466972351</v>
+        <v>0.4000123739242554</v>
       </c>
       <c r="W90" t="n">
-        <v>0.01880874671041965</v>
+        <v>0.01362112816423178</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5330600738525391</v>
       </c>
       <c r="V91" t="n">
-        <v>0.652911365032196</v>
+        <v>0.4084044396877289</v>
       </c>
       <c r="W91" t="n">
-        <v>0.0143643319606781</v>
+        <v>0.01553902681916952</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5145108699798584</v>
       </c>
       <c r="V92" t="n">
-        <v>0.5249706506729126</v>
+        <v>0.3990379273891449</v>
       </c>
       <c r="W92" t="n">
-        <v>0.0001094070103135891</v>
+        <v>0.01333400048315525</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5159890651702881</v>
       </c>
       <c r="V93" t="n">
-        <v>0.3719484806060791</v>
+        <v>0.8746761679649353</v>
       </c>
       <c r="W93" t="n">
-        <v>0.02074768953025341</v>
+        <v>0.1286564320325851</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5644011497497559</v>
       </c>
       <c r="V94" t="n">
-        <v>0.4906106293201447</v>
+        <v>0.5205112099647522</v>
       </c>
       <c r="W94" t="n">
-        <v>0.005445040762424469</v>
+        <v>0.001926326774992049</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5175778865814209</v>
       </c>
       <c r="V95" t="n">
-        <v>0.4904178380966187</v>
+        <v>0.8769626021385193</v>
       </c>
       <c r="W95" t="n">
-        <v>0.0007376682478934526</v>
+        <v>0.1291573792695999</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5130429267883301</v>
       </c>
       <c r="V96" t="n">
-        <v>0.3783480226993561</v>
+        <v>0.3990415632724762</v>
       </c>
       <c r="W96" t="n">
-        <v>0.01814271695911884</v>
+        <v>0.01299631129950285</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5202670097351074</v>
       </c>
       <c r="V97" t="n">
-        <v>0.5054473876953125</v>
+        <v>0.4009352624416351</v>
       </c>
       <c r="W97" t="n">
-        <v>0.0002196212008129805</v>
+        <v>0.01424006558954716</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.511603832244873</v>
       </c>
       <c r="V98" t="n">
-        <v>0.6543192863464355</v>
+        <v>0.8692973256111145</v>
       </c>
       <c r="W98" t="n">
-        <v>0.02036770060658455</v>
+        <v>0.1279446333646774</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5167169570922852</v>
       </c>
       <c r="V99" t="n">
-        <v>0.4611094295978546</v>
+        <v>0.8651067614555359</v>
       </c>
       <c r="W99" t="n">
-        <v>0.003092197002843022</v>
+        <v>0.1213754564523697</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5166358947753906</v>
       </c>
       <c r="V100" t="n">
-        <v>0.3507855832576752</v>
+        <v>0.4000873863697052</v>
       </c>
       <c r="W100" t="n">
-        <v>0.02750632539391518</v>
+        <v>0.01358355488628149</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5138838291168213</v>
       </c>
       <c r="V101" t="n">
-        <v>0.5756250023841858</v>
+        <v>0.3998481035232544</v>
       </c>
       <c r="W101" t="n">
-        <v>0.003811972448602319</v>
+        <v>0.01300414651632309</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.3930490016937256</v>
       </c>
       <c r="V102" t="n">
-        <v>0.6992238759994507</v>
+        <v>0.3990249931812286</v>
       </c>
       <c r="W102" t="n">
-        <v>0.09374305605888367</v>
+        <v>3.57124736183323e-05</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3973929882049561</v>
       </c>
       <c r="V103" t="n">
-        <v>0.4909484088420868</v>
+        <v>0.5208330750465393</v>
       </c>
       <c r="W103" t="n">
-        <v>0.008752617053687572</v>
+        <v>0.01523745525628328</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3878428936004639</v>
       </c>
       <c r="V104" t="n">
-        <v>0.490329772233963</v>
+        <v>0.5195519328117371</v>
       </c>
       <c r="W104" t="n">
-        <v>0.01050356030464172</v>
+        <v>0.01734727062284946</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4049160480499268</v>
       </c>
       <c r="V105" t="n">
-        <v>0.3887981772422791</v>
+        <v>0.8815987706184387</v>
       </c>
       <c r="W105" t="n">
-        <v>0.0002597857674118131</v>
+        <v>0.2272264212369919</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3859269618988037</v>
       </c>
       <c r="V106" t="n">
-        <v>0.8046457171440125</v>
+        <v>0.5203828811645508</v>
       </c>
       <c r="W106" t="n">
-        <v>0.1753253936767578</v>
+        <v>0.01807839423418045</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3840329647064209</v>
       </c>
       <c r="V107" t="n">
-        <v>0.975210964679718</v>
+        <v>0.4002678096294403</v>
       </c>
       <c r="W107" t="n">
-        <v>0.3494914174079895</v>
+        <v>0.0002635701966937631</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3876800537109375</v>
       </c>
       <c r="V108" t="n">
-        <v>0.97564297914505</v>
+        <v>0.4009354114532471</v>
       </c>
       <c r="W108" t="n">
-        <v>0.3457004129886627</v>
+        <v>0.0001757045101840049</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3914518356323242</v>
       </c>
       <c r="V109" t="n">
-        <v>0.4637985229492188</v>
+        <v>0.5241155028343201</v>
       </c>
       <c r="W109" t="n">
-        <v>0.00523404311388731</v>
+        <v>0.01759964786469936</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3865499496459961</v>
       </c>
       <c r="V110" t="n">
-        <v>0.4176654517650604</v>
+        <v>0.867018461227417</v>
       </c>
       <c r="W110" t="n">
-        <v>0.0009681744850240648</v>
+        <v>0.2308499962091446</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3879671096801758</v>
       </c>
       <c r="V111" t="n">
-        <v>0.5248926877975464</v>
+        <v>0.5217187404632568</v>
       </c>
       <c r="W111" t="n">
-        <v>0.01874861307442188</v>
+        <v>0.01788949966430664</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.404371976852417</v>
       </c>
       <c r="V112" t="n">
-        <v>0.4638242721557617</v>
+        <v>0.4002528190612793</v>
       </c>
       <c r="W112" t="n">
-        <v>0.003534575458616018</v>
+        <v>1.696746039669961e-05</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3875269889831543</v>
       </c>
       <c r="V113" t="n">
-        <v>0.417632520198822</v>
+        <v>0.4002982974052429</v>
       </c>
       <c r="W113" t="n">
-        <v>0.0009063429897651076</v>
+        <v>0.0001631063205422834</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.389984130859375</v>
       </c>
       <c r="V114" t="n">
-        <v>0.4176262617111206</v>
+        <v>0.3998657464981079</v>
       </c>
       <c r="W114" t="n">
-        <v>0.0007640874246135354</v>
+        <v>9.764632704900578e-05</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.387199878692627</v>
       </c>
       <c r="V115" t="n">
-        <v>0.6927068829536438</v>
+        <v>0.8854678869247437</v>
       </c>
       <c r="W115" t="n">
-        <v>0.09333453327417374</v>
+        <v>0.2482710033655167</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3892979621887207</v>
       </c>
       <c r="V116" t="n">
-        <v>0.3507537245750427</v>
+        <v>0.5220491886138916</v>
       </c>
       <c r="W116" t="n">
-        <v>0.001485658227466047</v>
+        <v>0.01762288808822632</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3893561363220215</v>
       </c>
       <c r="V117" t="n">
-        <v>0.3507649004459381</v>
+        <v>0.4012480676174164</v>
       </c>
       <c r="W117" t="n">
-        <v>0.001489283517003059</v>
+        <v>0.0001414180296706036</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4645850658416748</v>
       </c>
       <c r="V118" t="n">
-        <v>0.4176275134086609</v>
+        <v>0.8686763644218445</v>
       </c>
       <c r="W118" t="n">
-        <v>0.002205011667683721</v>
+        <v>0.1632897704839706</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.389646053314209</v>
       </c>
       <c r="V119" t="n">
-        <v>0.6536403894424438</v>
+        <v>0.8842381238937378</v>
       </c>
       <c r="W119" t="n">
-        <v>0.06969300657510757</v>
+        <v>0.2446213215589523</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.402008056640625</v>
       </c>
       <c r="V120" t="n">
-        <v>0.8045668601989746</v>
+        <v>0.5211955904960632</v>
       </c>
       <c r="W120" t="n">
-        <v>0.1620535850524902</v>
+        <v>0.01420566812157631</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3886678218841553</v>
       </c>
       <c r="V121" t="n">
-        <v>0.6990503668785095</v>
+        <v>0.4003020226955414</v>
       </c>
       <c r="W121" t="n">
-        <v>0.09633732587099075</v>
+        <v>0.000135354624944739</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.87795090675354</v>
       </c>
       <c r="V122" t="n">
-        <v>0.6531110405921936</v>
+        <v>0.8820340633392334</v>
       </c>
       <c r="W122" t="n">
-        <v>0.05055296421051025</v>
+        <v>1.667216747591738e-05</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9596488475799561</v>
       </c>
       <c r="V123" t="n">
-        <v>0.5262220501899719</v>
+        <v>0.8679026365280151</v>
       </c>
       <c r="W123" t="n">
-        <v>0.1878587901592255</v>
+        <v>0.008417367003858089</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8932981491088867</v>
       </c>
       <c r="V124" t="n">
-        <v>0.6543079614639282</v>
+        <v>0.8822057843208313</v>
       </c>
       <c r="W124" t="n">
-        <v>0.0571163110435009</v>
+        <v>0.0001230405614478514</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8721728324890137</v>
       </c>
       <c r="V125" t="n">
-        <v>0.3785795569419861</v>
+        <v>0.3990150988101959</v>
       </c>
       <c r="W125" t="n">
-        <v>0.2436343282461166</v>
+        <v>0.2238782346248627</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8685729503631592</v>
       </c>
       <c r="V126" t="n">
-        <v>0.3719204664230347</v>
+        <v>0.8705107569694519</v>
       </c>
       <c r="W126" t="n">
-        <v>0.2466636896133423</v>
+        <v>3.755094439839013e-06</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.9277229309082031</v>
       </c>
       <c r="V127" t="n">
-        <v>0.5051093101501465</v>
+        <v>0.4004339873790741</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1786022782325745</v>
+        <v>0.278033584356308</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8649361133575439</v>
       </c>
       <c r="V128" t="n">
-        <v>0.4615276753902435</v>
+        <v>0.8633741736412048</v>
       </c>
       <c r="W128" t="n">
-        <v>0.1627383679151535</v>
+        <v>2.43965564550308e-06</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8596479892730713</v>
       </c>
       <c r="V129" t="n">
-        <v>0.3720975518226624</v>
+        <v>0.8700390458106995</v>
       </c>
       <c r="W129" t="n">
-        <v>0.2377054244279861</v>
+        <v>0.0001079740541172214</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8693258762359619</v>
       </c>
       <c r="V130" t="n">
-        <v>0.4634914994239807</v>
+        <v>0.5161253809928894</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1647015362977982</v>
+        <v>0.124750591814518</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.9082400798797607</v>
       </c>
       <c r="V131" t="n">
-        <v>0.4175451099872589</v>
+        <v>0.8902824521064758</v>
       </c>
       <c r="W131" t="n">
-        <v>0.2407815605401993</v>
+        <v>0.0003224764077458531</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8649959564208984</v>
       </c>
       <c r="V132" t="n">
-        <v>0.4634905457496643</v>
+        <v>0.5296462178230286</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1612065881490707</v>
+        <v>0.1124594435095787</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.887131929397583</v>
       </c>
       <c r="V133" t="n">
-        <v>0.505433976650238</v>
+        <v>0.4081758558750153</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1456933319568634</v>
+        <v>0.2293989211320877</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8540570735931396</v>
       </c>
       <c r="V134" t="n">
-        <v>0.5930236577987671</v>
+        <v>0.5290376543998718</v>
       </c>
       <c r="W134" t="n">
-        <v>0.06813844293355942</v>
+        <v>0.1056376248598099</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.9169399738311768</v>
       </c>
       <c r="V135" t="n">
-        <v>0.4908800721168518</v>
+        <v>0.8756337761878967</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1815270334482193</v>
+        <v>0.001706201932393014</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.889164924621582</v>
       </c>
       <c r="V136" t="n">
-        <v>0.5052164793014526</v>
+        <v>0.4012592434883118</v>
       </c>
       <c r="W136" t="n">
-        <v>0.1474164128303528</v>
+        <v>0.2380519509315491</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>1.000038862228394</v>
       </c>
       <c r="V137" t="n">
-        <v>0.372467577457428</v>
+        <v>0.4056847989559174</v>
       </c>
       <c r="W137" t="n">
-        <v>0.3938457071781158</v>
+        <v>0.3532567024230957</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>1.042061805725098</v>
       </c>
       <c r="V138" t="n">
-        <v>0.5251706838607788</v>
+        <v>0.4012950658798218</v>
       </c>
       <c r="W138" t="n">
-        <v>0.2671764194965363</v>
+        <v>0.4105820059776306</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>1.044852018356323</v>
       </c>
       <c r="V139" t="n">
-        <v>0.6542560458183289</v>
+        <v>0.5243880152702332</v>
       </c>
       <c r="W139" t="n">
-        <v>0.152565211057663</v>
+        <v>0.270882785320282</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.9745490550994873</v>
       </c>
       <c r="V140" t="n">
-        <v>0.5050196051597595</v>
+        <v>0.8741230964660645</v>
       </c>
       <c r="W140" t="n">
-        <v>0.220457911491394</v>
+        <v>0.01008537318557501</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>1.012307167053223</v>
       </c>
       <c r="V141" t="n">
-        <v>0.6992213726043701</v>
+        <v>0.8742260336875916</v>
       </c>
       <c r="W141" t="n">
-        <v>0.0980227142572403</v>
+        <v>0.01906639896333218</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.7243790626525879</v>
       </c>
       <c r="V142" t="n">
-        <v>0.8046363592147827</v>
+        <v>0.8981230854988098</v>
       </c>
       <c r="W142" t="n">
-        <v>0.006441233679652214</v>
+        <v>0.03018698468804359</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.7847039699554443</v>
       </c>
       <c r="V143" t="n">
-        <v>0.3786694407463074</v>
+        <v>0.4002977311611176</v>
       </c>
       <c r="W143" t="n">
-        <v>0.1648640334606171</v>
+        <v>0.1477681547403336</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.6926898956298828</v>
       </c>
       <c r="V144" t="n">
-        <v>0.417653352022171</v>
+        <v>0.5158207416534424</v>
       </c>
       <c r="W144" t="n">
-        <v>0.07564509660005569</v>
+        <v>0.0312826968729496</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.591541051864624</v>
       </c>
       <c r="V145" t="n">
-        <v>0.5247749090194702</v>
+        <v>0.5352625250816345</v>
       </c>
       <c r="W145" t="n">
-        <v>0.004457717761397362</v>
+        <v>0.003167272545397282</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.7126760482788086</v>
       </c>
       <c r="V146" t="n">
-        <v>0.5256670713424683</v>
+        <v>0.5176275372505188</v>
       </c>
       <c r="W146" t="n">
-        <v>0.03497235849499702</v>
+        <v>0.03804391995072365</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.7342269420623779</v>
       </c>
       <c r="V147" t="n">
-        <v>0.3507460951805115</v>
+        <v>0.5155796408653259</v>
       </c>
       <c r="W147" t="n">
-        <v>0.1470575630664825</v>
+        <v>0.04780664294958115</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>1.749162912368774</v>
       </c>
       <c r="V148" t="n">
-        <v>0.5263315439224243</v>
+        <v>0.5158510208129883</v>
       </c>
       <c r="W148" t="n">
-        <v>1.495316505432129</v>
+        <v>1.521058201789856</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>1.001610994338989</v>
       </c>
       <c r="V149" t="n">
-        <v>0.3516814708709717</v>
+        <v>0.406068742275238</v>
       </c>
       <c r="W149" t="n">
-        <v>0.4224083721637726</v>
+        <v>0.3546705842018127</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5294368267059326</v>
       </c>
       <c r="V150" t="n">
-        <v>0.8004674911499023</v>
+        <v>0.3990183472633362</v>
       </c>
       <c r="W150" t="n">
-        <v>0.07345762103796005</v>
+        <v>0.01700897887349129</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>1.009587049484253</v>
       </c>
       <c r="V151" t="n">
-        <v>0.802345335483551</v>
+        <v>0.8783040046691895</v>
       </c>
       <c r="W151" t="n">
-        <v>0.042949128895998</v>
+        <v>0.01723523810505867</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5450611114501953</v>
       </c>
       <c r="V152" t="n">
-        <v>0.5873388648033142</v>
+        <v>0.5310177803039551</v>
       </c>
       <c r="W152" t="n">
-        <v>0.001787408371455967</v>
+        <v>0.0001972151512745768</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5734999179840088</v>
       </c>
       <c r="V153" t="n">
-        <v>0.800457239151001</v>
+        <v>0.4066521823406219</v>
       </c>
       <c r="W153" t="n">
-        <v>0.05150962620973587</v>
+        <v>0.02783816680312157</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.6739001274108887</v>
       </c>
       <c r="V154" t="n">
-        <v>0.6992434859275818</v>
+        <v>0.8745690584182739</v>
       </c>
       <c r="W154" t="n">
-        <v>0.000642285798676312</v>
+        <v>0.04026801884174347</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5439260005950928</v>
       </c>
       <c r="V155" t="n">
-        <v>0.4638172388076782</v>
+        <v>0.8761203289031982</v>
       </c>
       <c r="W155" t="n">
-        <v>0.006417413707822561</v>
+        <v>0.1103530749678612</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5302438735961914</v>
       </c>
       <c r="V156" t="n">
-        <v>0.5762282013893127</v>
+        <v>0.8757546544075012</v>
       </c>
       <c r="W156" t="n">
-        <v>0.002114558359608054</v>
+        <v>0.1193777024745941</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5834450721740723</v>
       </c>
       <c r="V157" t="n">
-        <v>0.4898227453231812</v>
+        <v>0.8749945759773254</v>
       </c>
       <c r="W157" t="n">
-        <v>0.008765140548348427</v>
+        <v>0.08500111103057861</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.6906929016113281</v>
       </c>
       <c r="V158" t="n">
-        <v>0.975181519985199</v>
+        <v>0.3990268707275391</v>
       </c>
       <c r="W158" t="n">
-        <v>0.08093377202749252</v>
+        <v>0.08506907522678375</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.7160649299621582</v>
       </c>
       <c r="V159" t="n">
-        <v>0.4638285040855408</v>
+        <v>0.5366026759147644</v>
       </c>
       <c r="W159" t="n">
-        <v>0.06362321227788925</v>
+        <v>0.0322066992521286</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.598010778427124</v>
       </c>
       <c r="V160" t="n">
-        <v>0.3514944016933441</v>
+        <v>0.5229125618934631</v>
       </c>
       <c r="W160" t="n">
-        <v>0.06077032536268234</v>
+        <v>0.005639742128551006</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.7153480052947998</v>
       </c>
       <c r="V161" t="n">
-        <v>0.838257908821106</v>
+        <v>0.8675565123558044</v>
       </c>
       <c r="W161" t="n">
-        <v>0.01510684471577406</v>
+        <v>0.02316742949187756</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.4626121520996094</v>
       </c>
       <c r="V162" t="n">
-        <v>0.8004262447357178</v>
+        <v>0.5225911140441895</v>
       </c>
       <c r="W162" t="n">
-        <v>0.1141183599829674</v>
+        <v>0.003597475821152329</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.5827970504760742</v>
       </c>
       <c r="V163" t="n">
-        <v>0.4904916286468506</v>
+        <v>0.5293717980384827</v>
       </c>
       <c r="W163" t="n">
-        <v>0.008520291186869144</v>
+        <v>0.0028542575892061</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.5078370571136475</v>
       </c>
       <c r="V164" t="n">
-        <v>0.5248074531555176</v>
+        <v>0.8782410621643066</v>
       </c>
       <c r="W164" t="n">
-        <v>0.0002879943349398673</v>
+        <v>0.1371991336345673</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.5675728321075439</v>
       </c>
       <c r="V165" t="n">
-        <v>0.6928392648696899</v>
+        <v>0.4057721793651581</v>
       </c>
       <c r="W165" t="n">
-        <v>0.01569167897105217</v>
+        <v>0.02617945149540901</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.4103000164031982</v>
       </c>
       <c r="V166" t="n">
-        <v>0.6926920413970947</v>
+        <v>0.882570207118988</v>
       </c>
       <c r="W166" t="n">
-        <v>0.07974525541067123</v>
+        <v>0.2230391353368759</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.4328699111938477</v>
       </c>
       <c r="V167" t="n">
-        <v>0.6535565853118896</v>
+        <v>0.8823577761650085</v>
       </c>
       <c r="W167" t="n">
-        <v>0.04870260879397392</v>
+        <v>0.2020393460988998</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.401043176651001</v>
       </c>
       <c r="V168" t="n">
-        <v>0.4692052006721497</v>
+        <v>0.8827027678489685</v>
       </c>
       <c r="W168" t="n">
-        <v>0.004646061453968287</v>
+        <v>0.2319959551095963</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.4814860820770264</v>
       </c>
       <c r="V169" t="n">
-        <v>0.3507598340511322</v>
+        <v>0.8624356985092163</v>
       </c>
       <c r="W169" t="n">
-        <v>0.0170893520116806</v>
+        <v>0.145122617483139</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.4977660179138184</v>
       </c>
       <c r="V170" t="n">
-        <v>0.4176340699195862</v>
+        <v>0.5262964963912964</v>
       </c>
       <c r="W170" t="n">
-        <v>0.00642112921923399</v>
+        <v>0.000813988212030381</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.4146420955657959</v>
       </c>
       <c r="V171" t="n">
-        <v>0.6529941558837891</v>
+        <v>0.880641758441925</v>
       </c>
       <c r="W171" t="n">
-        <v>0.05681170523166656</v>
+        <v>0.2171556800603867</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.4225339889526367</v>
       </c>
       <c r="V172" t="n">
-        <v>0.8337250947952271</v>
+        <v>0.4052539169788361</v>
       </c>
       <c r="W172" t="n">
-        <v>0.1690781265497208</v>
+        <v>0.0002986008767038584</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.5003869533538818</v>
       </c>
       <c r="V173" t="n">
-        <v>0.9760792851448059</v>
+        <v>0.8731245994567871</v>
       </c>
       <c r="W173" t="n">
-        <v>0.2262831926345825</v>
+        <v>0.1389333456754684</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.6014859676361084</v>
       </c>
       <c r="V174" t="n">
-        <v>0.4638742208480835</v>
+        <v>0.5160160064697266</v>
       </c>
       <c r="W174" t="n">
-        <v>0.0189369935542345</v>
+        <v>0.007305114064365625</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.6269838809967041</v>
       </c>
       <c r="V175" t="n">
-        <v>0.5761433839797974</v>
+        <v>0.8754460215568542</v>
       </c>
       <c r="W175" t="n">
-        <v>0.002584756119176745</v>
+        <v>0.0617334358394146</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.4697051048278809</v>
       </c>
       <c r="V176" t="n">
-        <v>0.4176277816295624</v>
+        <v>0.5342392325401306</v>
       </c>
       <c r="W176" t="n">
-        <v>0.002712047658860683</v>
+        <v>0.004164653830230236</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.6418681144714355</v>
       </c>
       <c r="V177" t="n">
-        <v>0.3507571518421173</v>
+        <v>0.3992961347103119</v>
       </c>
       <c r="W177" t="n">
-        <v>0.08474559336900711</v>
+        <v>0.05884116515517235</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.4358580112457275</v>
       </c>
       <c r="V178" t="n">
-        <v>0.5245612859725952</v>
+        <v>0.8641659617424011</v>
       </c>
       <c r="W178" t="n">
-        <v>0.007868271321058273</v>
+        <v>0.1834477037191391</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.475985050201416</v>
       </c>
       <c r="V179" t="n">
-        <v>0.4908617734909058</v>
+        <v>0.5158786773681641</v>
       </c>
       <c r="W179" t="n">
-        <v>0.0002213168918387964</v>
+        <v>0.001591501524671912</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.4401679039001465</v>
       </c>
       <c r="V180" t="n">
-        <v>0.417630136013031</v>
+        <v>0.5201632380485535</v>
       </c>
       <c r="W180" t="n">
-        <v>0.0005079509573988616</v>
+        <v>0.006399253383278847</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.5869040489196777</v>
       </c>
       <c r="V181" t="n">
-        <v>0.6926973462104797</v>
+        <v>0.5129365921020508</v>
       </c>
       <c r="W181" t="n">
-        <v>0.01119222212582827</v>
+        <v>0.005471184849739075</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.9794049263000488</v>
       </c>
       <c r="V182" t="n">
-        <v>0.5044592022895813</v>
+        <v>0.5159019827842712</v>
       </c>
       <c r="W182" t="n">
-        <v>0.2255734354257584</v>
+        <v>0.2148349732160568</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9947819709777832</v>
       </c>
       <c r="V183" t="n">
-        <v>0.6525439023971558</v>
+        <v>0.5294575691223145</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1171268969774246</v>
+        <v>0.2165268063545227</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>1.303267002105713</v>
       </c>
       <c r="V184" t="n">
-        <v>0.490370512008667</v>
+        <v>0.8646379113197327</v>
       </c>
       <c r="W184" t="n">
-        <v>0.6608006954193115</v>
+        <v>0.1923954784870148</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.9455239772796631</v>
       </c>
       <c r="V185" t="n">
-        <v>0.3507492542266846</v>
+        <v>0.5458253026008606</v>
       </c>
       <c r="W185" t="n">
-        <v>0.3537569642066956</v>
+        <v>0.1597590297460556</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.9072911739349365</v>
       </c>
       <c r="V186" t="n">
-        <v>0.3720992505550385</v>
+        <v>0.8668707609176636</v>
       </c>
       <c r="W186" t="n">
-        <v>0.2864303588867188</v>
+        <v>0.001633809763006866</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>1.161113977432251</v>
       </c>
       <c r="V187" t="n">
-        <v>0.4611244201660156</v>
+        <v>0.521794319152832</v>
       </c>
       <c r="W187" t="n">
-        <v>0.4899853765964508</v>
+        <v>0.408729612827301</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>1.067646026611328</v>
       </c>
       <c r="V188" t="n">
-        <v>0.5045288801193237</v>
+        <v>0.3996734619140625</v>
       </c>
       <c r="W188" t="n">
-        <v>0.3171009123325348</v>
+        <v>0.4461873471736908</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.9490058422088623</v>
       </c>
       <c r="V189" t="n">
-        <v>0.8414528369903564</v>
+        <v>0.511701762676239</v>
       </c>
       <c r="W189" t="n">
-        <v>0.01156764850020409</v>
+        <v>0.1912348568439484</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>1.015818119049072</v>
       </c>
       <c r="V190" t="n">
-        <v>0.5908601880073547</v>
+        <v>0.5162783265113831</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1805892437696457</v>
+        <v>0.2495400011539459</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>1.242063999176025</v>
       </c>
       <c r="V191" t="n">
-        <v>0.6546903848648071</v>
+        <v>0.523516058921814</v>
       </c>
       <c r="W191" t="n">
-        <v>0.3450077772140503</v>
+        <v>0.5163111686706543</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.9658050537109375</v>
       </c>
       <c r="V192" t="n">
-        <v>0.9760575294494629</v>
+        <v>0.5188334584236145</v>
       </c>
       <c r="W192" t="n">
-        <v>0.0001051132567226887</v>
+        <v>0.1997836083173752</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.9985220432281494</v>
       </c>
       <c r="V193" t="n">
-        <v>0.6533357501029968</v>
+        <v>0.874615490436554</v>
       </c>
       <c r="W193" t="n">
-        <v>0.1191535741090775</v>
+        <v>0.01535283401608467</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.915024995803833</v>
       </c>
       <c r="V194" t="n">
-        <v>0.653571605682373</v>
+        <v>0.8612615466117859</v>
       </c>
       <c r="W194" t="n">
-        <v>0.06835787743330002</v>
+        <v>0.002890508389100432</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.9496200084686279</v>
       </c>
       <c r="V195" t="n">
-        <v>0.4897371828556061</v>
+        <v>0.5289080739021301</v>
       </c>
       <c r="W195" t="n">
-        <v>0.2114922106266022</v>
+        <v>0.1769985258579254</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8781299591064453</v>
       </c>
       <c r="V196" t="n">
-        <v>0.8047276735305786</v>
+        <v>0.8677515983581543</v>
       </c>
       <c r="W196" t="n">
-        <v>0.005387895740568638</v>
+        <v>0.0001077103734132834</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.9179329872131348</v>
       </c>
       <c r="V197" t="n">
-        <v>0.35074183344841</v>
+        <v>0.3996799290180206</v>
       </c>
       <c r="W197" t="n">
-        <v>0.3217057585716248</v>
+        <v>0.268586277961731</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.9417951107025146</v>
       </c>
       <c r="V198" t="n">
-        <v>0.4904197454452515</v>
+        <v>0.518013060092926</v>
       </c>
       <c r="W198" t="n">
-        <v>0.2037397176027298</v>
+        <v>0.1795912235975266</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.9349501132965088</v>
       </c>
       <c r="V199" t="n">
-        <v>0.3470315337181091</v>
+        <v>0.8690263628959656</v>
       </c>
       <c r="W199" t="n">
-        <v>0.3456482589244843</v>
+        <v>0.004345940891653299</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8828499317169189</v>
       </c>
       <c r="V200" t="n">
-        <v>0.6528818607330322</v>
+        <v>0.4007434844970703</v>
       </c>
       <c r="W200" t="n">
-        <v>0.05288531258702278</v>
+        <v>0.2324266284704208</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.9538199901580811</v>
       </c>
       <c r="V201" t="n">
-        <v>0.5038111805915833</v>
+        <v>0.88776695728302</v>
       </c>
       <c r="W201" t="n">
-        <v>0.2025079280138016</v>
+        <v>0.004363003186881542</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5713810920715332</v>
       </c>
       <c r="V202" t="n">
-        <v>0.3507673740386963</v>
+        <v>0.8905917406082153</v>
       </c>
       <c r="W202" t="n">
-        <v>0.04867041110992432</v>
+        <v>0.1018954366445541</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5755140781402588</v>
       </c>
       <c r="V203" t="n">
-        <v>0.3471212387084961</v>
+        <v>0.8747861981391907</v>
       </c>
       <c r="W203" t="n">
-        <v>0.05216328799724579</v>
+        <v>0.08956380188465118</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5945589542388916</v>
       </c>
       <c r="V204" t="n">
-        <v>0.4615108966827393</v>
+        <v>0.3998483121395111</v>
       </c>
       <c r="W204" t="n">
-        <v>0.01770178601145744</v>
+        <v>0.03791223466396332</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5229620933532715</v>
       </c>
       <c r="V205" t="n">
-        <v>0.5821697115898132</v>
+        <v>0.5208981037139893</v>
       </c>
       <c r="W205" t="n">
-        <v>0.003505541943013668</v>
+        <v>4.260053174220957e-06</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5375070571899414</v>
       </c>
       <c r="V206" t="n">
-        <v>0.3712720274925232</v>
+        <v>0.5204417109489441</v>
       </c>
       <c r="W206" t="n">
-        <v>0.02763408422470093</v>
+        <v>0.0002912260533776134</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5311958789825439</v>
       </c>
       <c r="V207" t="n">
-        <v>0.4896917641162872</v>
+        <v>0.5161036252975464</v>
       </c>
       <c r="W207" t="n">
-        <v>0.001722591579891741</v>
+        <v>0.0002277761232107878</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.6338448524475098</v>
       </c>
       <c r="V208" t="n">
-        <v>0.6539149880409241</v>
+        <v>0.5197317600250244</v>
       </c>
       <c r="W208" t="n">
-        <v>0.0004028103430755436</v>
+        <v>0.01302179787307978</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.566864013671875</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4614459872245789</v>
+        <v>0.4056952297687531</v>
       </c>
       <c r="W209" t="n">
-        <v>0.01111296005547047</v>
+        <v>0.02597537636756897</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5531690120697021</v>
       </c>
       <c r="V210" t="n">
-        <v>0.3720111846923828</v>
+        <v>0.3990240693092346</v>
       </c>
       <c r="W210" t="n">
-        <v>0.03281815722584724</v>
+        <v>0.02376066334545612</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5796909332275391</v>
       </c>
       <c r="V211" t="n">
-        <v>0.5822299122810364</v>
+        <v>0.8741282820701599</v>
       </c>
       <c r="W211" t="n">
-        <v>6.446414772653952e-06</v>
+        <v>0.08669335395097733</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5299561023712158</v>
       </c>
       <c r="V212" t="n">
-        <v>0.3507409393787384</v>
+        <v>0.8673092722892761</v>
       </c>
       <c r="W212" t="n">
-        <v>0.03211807459592819</v>
+        <v>0.1138071641325951</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5377700328826904</v>
       </c>
       <c r="V213" t="n">
-        <v>0.6863111853599548</v>
+        <v>0.5236883759498596</v>
       </c>
       <c r="W213" t="n">
-        <v>0.02206447347998619</v>
+        <v>0.0001982930552912876</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5300910472869873</v>
       </c>
       <c r="V214" t="n">
-        <v>0.5247882604598999</v>
+        <v>0.5332123041152954</v>
       </c>
       <c r="W214" t="n">
-        <v>2.811954800563399e-05</v>
+        <v>9.742244401422795e-06</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5340449810028076</v>
       </c>
       <c r="V215" t="n">
-        <v>0.4176601767539978</v>
+        <v>0.5235115885734558</v>
       </c>
       <c r="W215" t="n">
-        <v>0.01354542281478643</v>
+        <v>0.0001109523582272232</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5986099243164062</v>
       </c>
       <c r="V216" t="n">
-        <v>0.4634853303432465</v>
+        <v>0.3990438282489777</v>
       </c>
       <c r="W216" t="n">
-        <v>0.01825865544378757</v>
+        <v>0.03982662782073021</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5535690784454346</v>
       </c>
       <c r="V217" t="n">
-        <v>0.8022716045379639</v>
+        <v>0.5339680314064026</v>
       </c>
       <c r="W217" t="n">
-        <v>0.06185294687747955</v>
+        <v>0.0003842010337393731</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5939450263977051</v>
       </c>
       <c r="V218" t="n">
-        <v>0.4176313579082489</v>
+        <v>0.5136150121688843</v>
       </c>
       <c r="W218" t="n">
-        <v>0.03108651004731655</v>
+        <v>0.00645291106775403</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5699090957641602</v>
       </c>
       <c r="V219" t="n">
-        <v>0.4176499843597412</v>
+        <v>0.3990274369716644</v>
       </c>
       <c r="W219" t="n">
-        <v>0.02318283729255199</v>
+        <v>0.02920054085552692</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5366451740264893</v>
       </c>
       <c r="V220" t="n">
-        <v>0.8381872177124023</v>
+        <v>0.4004241526126862</v>
       </c>
       <c r="W220" t="n">
-        <v>0.0909276008605957</v>
+        <v>0.01855616644024849</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5297369956970215</v>
       </c>
       <c r="V221" t="n">
-        <v>0.6862813830375671</v>
+        <v>0.8642292022705078</v>
       </c>
       <c r="W221" t="n">
-        <v>0.02450614608824253</v>
+        <v>0.1118850335478783</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.4540388584136963</v>
       </c>
       <c r="V222" t="n">
-        <v>0.3710145056247711</v>
+        <v>0.8669704794883728</v>
       </c>
       <c r="W222" t="n">
-        <v>0.00689304294064641</v>
+        <v>0.1705125272274017</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.5054399967193604</v>
       </c>
       <c r="V223" t="n">
-        <v>0.5030666589736938</v>
+        <v>0.3997014760971069</v>
       </c>
       <c r="W223" t="n">
-        <v>5.632732154481346e-06</v>
+        <v>0.0111806346103549</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.4479269981384277</v>
       </c>
       <c r="V224" t="n">
-        <v>0.4634823501110077</v>
+        <v>0.5163280963897705</v>
       </c>
       <c r="W224" t="n">
-        <v>0.0002419689699308947</v>
+        <v>0.004678710363805294</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.4337079524993896</v>
       </c>
       <c r="V225" t="n">
-        <v>0.6532728672027588</v>
+        <v>0.4002534449100494</v>
       </c>
       <c r="W225" t="n">
-        <v>0.04820875078439713</v>
+        <v>0.00111920409835875</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.4106848239898682</v>
       </c>
       <c r="V226" t="n">
-        <v>0.5243822336196899</v>
+        <v>0.4062837958335876</v>
       </c>
       <c r="W226" t="n">
-        <v>0.01292710099369287</v>
+        <v>1.936904845933896e-05</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.4406330585479736</v>
       </c>
       <c r="V227" t="n">
-        <v>0.4176304936408997</v>
+        <v>0.3992781043052673</v>
       </c>
       <c r="W227" t="n">
-        <v>0.0005291179986670613</v>
+        <v>0.001710232230834663</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4094099998474121</v>
       </c>
       <c r="V228" t="n">
-        <v>0.3470365405082703</v>
+        <v>0.8748680949211121</v>
       </c>
       <c r="W228" t="n">
-        <v>0.003890448482707143</v>
+        <v>0.2166512310504913</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4496161937713623</v>
       </c>
       <c r="V229" t="n">
-        <v>0.4781287908554077</v>
+        <v>0.4003767371177673</v>
       </c>
       <c r="W229" t="n">
-        <v>0.0008129681809805334</v>
+        <v>0.002424524165689945</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.40966796875</v>
       </c>
       <c r="V230" t="n">
-        <v>0.3507513999938965</v>
+        <v>0.8663285970687866</v>
       </c>
       <c r="W230" t="n">
-        <v>0.003471162170171738</v>
+        <v>0.2085389345884323</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.4010720252990723</v>
       </c>
       <c r="V231" t="n">
-        <v>0.5258046388626099</v>
+        <v>0.4002633392810822</v>
       </c>
       <c r="W231" t="n">
-        <v>0.01555822510272264</v>
+        <v>6.539730748045258e-07</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4480741024017334</v>
       </c>
       <c r="V232" t="n">
-        <v>0.9752137064933777</v>
+        <v>0.5181660652160645</v>
       </c>
       <c r="W232" t="n">
-        <v>0.2778761684894562</v>
+        <v>0.004912883043289185</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.402522087097168</v>
       </c>
       <c r="V233" t="n">
-        <v>0.8341859579086304</v>
+        <v>0.8776456117630005</v>
       </c>
       <c r="W233" t="n">
-        <v>0.1863337010145187</v>
+        <v>0.225742369890213</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.4026041030883789</v>
       </c>
       <c r="V234" t="n">
-        <v>0.6533396244049072</v>
+        <v>0.5661442279815674</v>
       </c>
       <c r="W234" t="n">
-        <v>0.06286830455064774</v>
+        <v>0.02674537152051926</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4044098854064941</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5048985481262207</v>
+        <v>0.5330485701560974</v>
       </c>
       <c r="W235" t="n">
-        <v>0.01009797118604183</v>
+        <v>0.01654791086912155</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4055910110473633</v>
       </c>
       <c r="V236" t="n">
-        <v>0.7035881876945496</v>
+        <v>0.8692729473114014</v>
       </c>
       <c r="W236" t="n">
-        <v>0.08880231529474258</v>
+        <v>0.2150009423494339</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.4199600219726562</v>
       </c>
       <c r="V237" t="n">
-        <v>0.6992233991622925</v>
+        <v>0.5293450951576233</v>
       </c>
       <c r="W237" t="n">
-        <v>0.07798803597688675</v>
+        <v>0.01196509413421154</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3885390758514404</v>
       </c>
       <c r="V238" t="n">
-        <v>0.4614620208740234</v>
+        <v>0.400225967168808</v>
       </c>
       <c r="W238" t="n">
-        <v>0.005317755974829197</v>
+        <v>0.000136583432322368</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3922989368438721</v>
       </c>
       <c r="V239" t="n">
-        <v>0.3507504463195801</v>
+        <v>0.4002493321895599</v>
       </c>
       <c r="W239" t="n">
-        <v>0.001726277056150138</v>
+        <v>6.320878310361877e-05</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3909039497375488</v>
       </c>
       <c r="V240" t="n">
-        <v>0.699232816696167</v>
+        <v>0.5159361362457275</v>
       </c>
       <c r="W240" t="n">
-        <v>0.09506668895483017</v>
+        <v>0.01563304848968983</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3951401710510254</v>
       </c>
       <c r="V241" t="n">
-        <v>0.3720027506351471</v>
+        <v>0.4000919163227081</v>
       </c>
       <c r="W241" t="n">
-        <v>0.0005353402229957283</v>
+        <v>2.451978070894256e-05</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9211130142211914</v>
       </c>
       <c r="V242" t="n">
-        <v>0.6535108089447021</v>
+        <v>0.4009655117988586</v>
       </c>
       <c r="W242" t="n">
-        <v>0.0716109424829483</v>
+        <v>0.2705534100532532</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.9806990623474121</v>
       </c>
       <c r="V243" t="n">
-        <v>0.3717378973960876</v>
+        <v>0.4000024497509003</v>
       </c>
       <c r="W243" t="n">
-        <v>0.370833694934845</v>
+        <v>0.3372085094451904</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.870244026184082</v>
       </c>
       <c r="V244" t="n">
-        <v>0.5406032800674438</v>
+        <v>0.5237242579460144</v>
       </c>
       <c r="W244" t="n">
-        <v>0.108663022518158</v>
+        <v>0.120075948536396</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8767430782318115</v>
       </c>
       <c r="V245" t="n">
-        <v>0.4175510704517365</v>
+        <v>0.8686342835426331</v>
       </c>
       <c r="W245" t="n">
-        <v>0.2108573019504547</v>
+        <v>6.575255247298628e-05</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8698410987854004</v>
       </c>
       <c r="V246" t="n">
-        <v>0.5826015472412109</v>
+        <v>0.4002816081047058</v>
       </c>
       <c r="W246" t="n">
-        <v>0.08250655978918076</v>
+        <v>0.220486119389534</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8713259696960449</v>
       </c>
       <c r="V247" t="n">
-        <v>0.6538190245628357</v>
+        <v>0.401273250579834</v>
       </c>
       <c r="W247" t="n">
-        <v>0.0473092719912529</v>
+        <v>0.2209495604038239</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8667900562286377</v>
       </c>
       <c r="V248" t="n">
-        <v>0.3782425820827484</v>
+        <v>0.8667927384376526</v>
       </c>
       <c r="W248" t="n">
-        <v>0.2386786341667175</v>
+        <v>7.194245199571014e-12</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8821539878845215</v>
       </c>
       <c r="V249" t="n">
-        <v>0.4908333420753479</v>
+        <v>0.5213841795921326</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1531318426132202</v>
+        <v>0.1301548480987549</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8690099716186523</v>
       </c>
       <c r="V250" t="n">
-        <v>0.9757341742515564</v>
+        <v>0.5156529545783997</v>
       </c>
       <c r="W250" t="n">
-        <v>0.01139005552977324</v>
+        <v>0.1248611807823181</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8637280464172363</v>
       </c>
       <c r="V251" t="n">
-        <v>0.4907099008560181</v>
+        <v>0.5216500163078308</v>
       </c>
       <c r="W251" t="n">
-        <v>0.1391425430774689</v>
+        <v>0.1170173808932304</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.9269728660583496</v>
       </c>
       <c r="V252" t="n">
-        <v>0.801636278629303</v>
+        <v>0.8745707273483276</v>
       </c>
       <c r="W252" t="n">
-        <v>0.01570926047861576</v>
+        <v>0.002745984122157097</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8710360527038574</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5870838761329651</v>
+        <v>0.8836301565170288</v>
       </c>
       <c r="W253" t="n">
-        <v>0.08062884211540222</v>
+        <v>0.0001586114522069693</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8685760498046875</v>
       </c>
       <c r="V254" t="n">
-        <v>0.4175667762756348</v>
+        <v>0.5333358645439148</v>
       </c>
       <c r="W254" t="n">
-        <v>0.2034093588590622</v>
+        <v>0.112385980784893</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8729279041290283</v>
       </c>
       <c r="V255" t="n">
-        <v>0.8012609481811523</v>
+        <v>0.5342992544174194</v>
       </c>
       <c r="W255" t="n">
-        <v>0.005136152729392052</v>
+        <v>0.1146693602204323</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.944101095199585</v>
       </c>
       <c r="V256" t="n">
-        <v>0.4611299932003021</v>
+        <v>0.4009582996368408</v>
       </c>
       <c r="W256" t="n">
-        <v>0.2332610785961151</v>
+        <v>0.2950040996074677</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8737947940826416</v>
       </c>
       <c r="V257" t="n">
-        <v>0.5050980448722839</v>
+        <v>0.4000069200992584</v>
       </c>
       <c r="W257" t="n">
-        <v>0.135937288403511</v>
+        <v>0.2244749516248703</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8584229946136475</v>
       </c>
       <c r="V258" t="n">
-        <v>0.5036088228225708</v>
+        <v>0.4002595841884613</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1258931010961533</v>
+        <v>0.2099137157201767</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8679828643798828</v>
       </c>
       <c r="V259" t="n">
-        <v>0.5823945999145508</v>
+        <v>0.8714247345924377</v>
       </c>
       <c r="W259" t="n">
-        <v>0.0815606564283371</v>
+        <v>1.184647044283338e-05</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.9213440418243408</v>
       </c>
       <c r="V260" t="n">
-        <v>0.5245010852813721</v>
+        <v>0.8746642470359802</v>
       </c>
       <c r="W260" t="n">
-        <v>0.1574843376874924</v>
+        <v>0.002179003320634365</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8658730983734131</v>
       </c>
       <c r="V261" t="n">
-        <v>0.8296502828598022</v>
+        <v>0.8930129408836365</v>
       </c>
       <c r="W261" t="n">
-        <v>0.001312092412263155</v>
+        <v>0.0007365710334852338</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5375349521636963</v>
       </c>
       <c r="V262" t="n">
-        <v>0.3507419228553772</v>
+        <v>0.5077536106109619</v>
       </c>
       <c r="W262" t="n">
-        <v>0.03489163517951965</v>
+        <v>0.0008869282901287079</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5455069541931152</v>
       </c>
       <c r="V263" t="n">
-        <v>0.5050956606864929</v>
+        <v>0.5173951983451843</v>
       </c>
       <c r="W263" t="n">
-        <v>0.001633072621189058</v>
+        <v>0.0007902708020992577</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5220639705657959</v>
       </c>
       <c r="V264" t="n">
-        <v>0.8015877604484558</v>
+        <v>0.8901898264884949</v>
       </c>
       <c r="W264" t="n">
-        <v>0.07813354581594467</v>
+        <v>0.1355166435241699</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5788588523864746</v>
       </c>
       <c r="V265" t="n">
-        <v>0.4638583362102509</v>
+        <v>0.4000157415866852</v>
       </c>
       <c r="W265" t="n">
-        <v>0.01322511862963438</v>
+        <v>0.03198485821485519</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5263650417327881</v>
       </c>
       <c r="V266" t="n">
-        <v>0.655465304851532</v>
+        <v>0.5337784290313721</v>
       </c>
       <c r="W266" t="n">
-        <v>0.01666687801480293</v>
+        <v>5.495831283042207e-05</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5242989063262939</v>
       </c>
       <c r="V267" t="n">
-        <v>0.3718892931938171</v>
+        <v>0.8879067301750183</v>
       </c>
       <c r="W267" t="n">
-        <v>0.02322869002819061</v>
+        <v>0.1322106570005417</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5247111320495605</v>
       </c>
       <c r="V268" t="n">
-        <v>0.6928427815437317</v>
+        <v>0.8716564774513245</v>
       </c>
       <c r="W268" t="n">
-        <v>0.02826825156807899</v>
+        <v>0.1203710734844208</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5220930576324463</v>
       </c>
       <c r="V269" t="n">
-        <v>0.590633749961853</v>
+        <v>0.3990381062030792</v>
       </c>
       <c r="W269" t="n">
-        <v>0.004697826690971851</v>
+        <v>0.01514252088963985</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5763959884643555</v>
       </c>
       <c r="V270" t="n">
-        <v>0.5042976140975952</v>
+        <v>0.8742627501487732</v>
       </c>
       <c r="W270" t="n">
-        <v>0.005198175553232431</v>
+        <v>0.08872460573911667</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.52097487449646</v>
       </c>
       <c r="V271" t="n">
-        <v>0.3518537282943726</v>
+        <v>0.8722041249275208</v>
       </c>
       <c r="W271" t="n">
-        <v>0.02860196121037006</v>
+        <v>0.1233619898557663</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5524191856384277</v>
       </c>
       <c r="V272" t="n">
-        <v>0.9755281805992126</v>
+        <v>0.5657944083213806</v>
       </c>
       <c r="W272" t="n">
-        <v>0.1790212243795395</v>
+        <v>0.0001788965746527538</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5241289138793945</v>
       </c>
       <c r="V273" t="n">
-        <v>0.5244113802909851</v>
+        <v>0.4009682536125183</v>
       </c>
       <c r="W273" t="n">
-        <v>7.978727012414311e-08</v>
+        <v>0.01516854856163263</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5241098403930664</v>
       </c>
       <c r="V274" t="n">
-        <v>0.4907240867614746</v>
+        <v>0.5111385583877563</v>
       </c>
       <c r="W274" t="n">
-        <v>0.001114608603529632</v>
+        <v>0.0001682541624177247</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5179378986358643</v>
       </c>
       <c r="V275" t="n">
-        <v>0.5045692920684814</v>
+        <v>0.4001049399375916</v>
       </c>
       <c r="W275" t="n">
-        <v>0.0001787196379154921</v>
+        <v>0.01388460583984852</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.519568920135498</v>
       </c>
       <c r="V276" t="n">
-        <v>0.4176599979400635</v>
+        <v>0.5250219702720642</v>
       </c>
       <c r="W276" t="n">
-        <v>0.01038542855530977</v>
+        <v>2.973575647047255e-05</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5325438976287842</v>
       </c>
       <c r="V277" t="n">
-        <v>0.802417516708374</v>
+        <v>0.8740308880805969</v>
       </c>
       <c r="W277" t="n">
-        <v>0.07283177226781845</v>
+        <v>0.1166133657097816</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5204300880432129</v>
       </c>
       <c r="V278" t="n">
-        <v>0.9751924276351929</v>
+        <v>0.4002732336521149</v>
       </c>
       <c r="W278" t="n">
-        <v>0.206808790564537</v>
+        <v>0.01443766988813877</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5581910610198975</v>
       </c>
       <c r="V279" t="n">
-        <v>0.417652815580368</v>
+        <v>0.5115142464637756</v>
       </c>
       <c r="W279" t="n">
-        <v>0.01975099928677082</v>
+        <v>0.002178725088015199</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.540956974029541</v>
       </c>
       <c r="V280" t="n">
-        <v>0.5042588710784912</v>
+        <v>0.5218587517738342</v>
       </c>
       <c r="W280" t="n">
-        <v>0.001346750766970217</v>
+        <v>0.0003647420962806791</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5250480175018311</v>
       </c>
       <c r="V281" t="n">
-        <v>0.9755959510803223</v>
+        <v>0.520821213722229</v>
       </c>
       <c r="W281" t="n">
-        <v>0.2029934376478195</v>
+        <v>1.786587017704733e-05</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4176249504089355</v>
       </c>
       <c r="V282" t="n">
-        <v>0.5826250314712524</v>
+        <v>0.8878574967384338</v>
       </c>
       <c r="W282" t="n">
-        <v>0.02722502686083317</v>
+        <v>0.2211186438798904</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4070680141448975</v>
       </c>
       <c r="V283" t="n">
-        <v>0.3778701424598694</v>
+        <v>0.8753967881202698</v>
       </c>
       <c r="W283" t="n">
-        <v>0.0008525156881660223</v>
+        <v>0.2193318456411362</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3968582153320312</v>
       </c>
       <c r="V284" t="n">
-        <v>0.8027225732803345</v>
+        <v>0.5140751600265503</v>
       </c>
       <c r="W284" t="n">
-        <v>0.1647258698940277</v>
+        <v>0.01373981218785048</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3917670249938965</v>
       </c>
       <c r="V285" t="n">
-        <v>0.5049243569374084</v>
+        <v>0.3992916941642761</v>
       </c>
       <c r="W285" t="n">
-        <v>0.01280458178371191</v>
+        <v>5.662064722855575e-05</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3943579196929932</v>
       </c>
       <c r="V286" t="n">
-        <v>0.3518496155738831</v>
+        <v>0.4003899991512299</v>
       </c>
       <c r="W286" t="n">
-        <v>0.001806955900974572</v>
+        <v>3.638598354882561e-05</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.408660888671875</v>
       </c>
       <c r="V287" t="n">
-        <v>0.3789054155349731</v>
+        <v>0.4002832472324371</v>
       </c>
       <c r="W287" t="n">
-        <v>0.0008853881736285985</v>
+        <v>7.018487667664886e-05</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3990390300750732</v>
       </c>
       <c r="V288" t="n">
-        <v>0.4906497597694397</v>
+        <v>0.5158154368400574</v>
       </c>
       <c r="W288" t="n">
-        <v>0.008392525836825371</v>
+        <v>0.01363672874867916</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4037508964538574</v>
       </c>
       <c r="V289" t="n">
-        <v>0.8296811580657959</v>
+        <v>0.4003295302391052</v>
       </c>
       <c r="W289" t="n">
-        <v>0.1814165860414505</v>
+        <v>1.170574705611216e-05</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3965380191802979</v>
       </c>
       <c r="V290" t="n">
-        <v>0.4176727831363678</v>
+        <v>0.405231237411499</v>
       </c>
       <c r="W290" t="n">
-        <v>0.0004466782556846738</v>
+        <v>7.557204662589356e-05</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.4003570079803467</v>
       </c>
       <c r="V291" t="n">
-        <v>0.6537992358207703</v>
+        <v>0.8676298260688782</v>
       </c>
       <c r="W291" t="n">
-        <v>0.0642329603433609</v>
+        <v>0.2183438837528229</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4289281368255615</v>
       </c>
       <c r="V292" t="n">
-        <v>0.8022168874740601</v>
+        <v>0.8699580430984497</v>
       </c>
       <c r="W292" t="n">
-        <v>0.1393444985151291</v>
+        <v>0.1945073753595352</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4009029865264893</v>
       </c>
       <c r="V293" t="n">
-        <v>0.6521576642990112</v>
+        <v>0.888530433177948</v>
       </c>
       <c r="W293" t="n">
-        <v>0.06312891095876694</v>
+        <v>0.2377805262804031</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.4118380546569824</v>
       </c>
       <c r="V294" t="n">
-        <v>0.9756271839141846</v>
+        <v>0.8773389458656311</v>
       </c>
       <c r="W294" t="n">
-        <v>0.3178581893444061</v>
+        <v>0.2166910767555237</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3951239585876465</v>
       </c>
       <c r="V295" t="n">
-        <v>0.4903136193752289</v>
+        <v>0.8570823073387146</v>
       </c>
       <c r="W295" t="n">
-        <v>0.009061071090400219</v>
+        <v>0.2134055197238922</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3940439224243164</v>
       </c>
       <c r="V296" t="n">
-        <v>0.8000637888908386</v>
+        <v>0.5180009007453918</v>
       </c>
       <c r="W296" t="n">
-        <v>0.1648521274328232</v>
+        <v>0.01536533236503601</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3973109722137451</v>
       </c>
       <c r="V297" t="n">
-        <v>0.4176348447799683</v>
+        <v>0.868899405002594</v>
       </c>
       <c r="W297" t="n">
-        <v>0.0004130598099436611</v>
+        <v>0.2223956435918808</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.402285099029541</v>
       </c>
       <c r="V298" t="n">
-        <v>0.5248144865036011</v>
+        <v>0.4012459516525269</v>
       </c>
       <c r="W298" t="n">
-        <v>0.01501345075666904</v>
+        <v>1.079827256944554e-06</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.422828197479248</v>
       </c>
       <c r="V299" t="n">
-        <v>0.7035837173461914</v>
+        <v>0.5376461148262024</v>
       </c>
       <c r="W299" t="n">
-        <v>0.07882366329431534</v>
+        <v>0.01318315416574478</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4005999565124512</v>
       </c>
       <c r="V300" t="n">
-        <v>0.490833193063736</v>
+        <v>0.5156121850013733</v>
       </c>
       <c r="W300" t="n">
-        <v>0.008142037317156792</v>
+        <v>0.01322781294584274</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4141850471496582</v>
       </c>
       <c r="V301" t="n">
-        <v>0.4691958427429199</v>
+        <v>0.5186274647712708</v>
       </c>
       <c r="W301" t="n">
-        <v>0.003026187652722001</v>
+        <v>0.01090821903198957</v>
       </c>
     </row>
     <row r="302" spans="1:23">
